--- a/final strut overview.xlsx
+++ b/final strut overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\DSE\Bigger_is_Better\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F32914A-9BBD-4560-81D1-73A109FE2E68}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5482136-20B7-413A-85C5-2865FD291DEE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{EE3265AF-2B1E-4F7B-B58D-C01DF63E7154}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="150">
   <si>
     <t>Material</t>
   </si>
@@ -399,58 +399,91 @@
     <t>spar</t>
   </si>
   <si>
-    <t>I_zz</t>
-  </si>
-  <si>
-    <t>length</t>
-  </si>
-  <si>
-    <t>deflection</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>sturtv</t>
-  </si>
-  <si>
-    <t>Strut</t>
-  </si>
-  <si>
-    <t>force</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>deflections</t>
-  </si>
-  <si>
-    <t>Deflection</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>Required</t>
-  </si>
-  <si>
-    <t>area</t>
-  </si>
-  <si>
-    <t>Root</t>
-  </si>
-  <si>
-    <t>moment</t>
-  </si>
-  <si>
-    <t>around</t>
-  </si>
-  <si>
-    <t>z:</t>
-  </si>
-  <si>
-    <t>y:</t>
+    <t>area due to force [0.00858064]</t>
+  </si>
+  <si>
+    <t>spar mass 9124.721122949974</t>
+  </si>
+  <si>
+    <t>critical stress [12900796.46595303]</t>
+  </si>
+  <si>
+    <t>skin mass 3036.734443009811</t>
+  </si>
+  <si>
+    <t>boom mass [8455.97188139]</t>
+  </si>
+  <si>
+    <t>boom cost [16573.70488753]</t>
+  </si>
+  <si>
+    <t>length strut 18.458209056101868</t>
+  </si>
+  <si>
+    <t>deflection of strut 0.012958424011577943</t>
+  </si>
+  <si>
+    <t>Strut force and deflections</t>
+  </si>
+  <si>
+    <t>Strut force 1201289.8690754536</t>
+  </si>
+  <si>
+    <t>Deflection of the strut 0.012958424011577943</t>
+  </si>
+  <si>
+    <t>Required strut area 0.012012898690754536</t>
+  </si>
+  <si>
+    <t>Root moment around z:  5069740.656571355</t>
+  </si>
+  <si>
+    <t>Root moment around y:  7484937.585407285</t>
+  </si>
+  <si>
+    <t>Root force around y:  1470183.4731577921</t>
+  </si>
+  <si>
+    <t>Root force around z:  -505804.812125947</t>
+  </si>
+  <si>
+    <t>I_zz 0.054416902713955946</t>
+  </si>
+  <si>
+    <t>Strut force 1202335.5093414588</t>
+  </si>
+  <si>
+    <t>Required strut area 0.012023355093414588</t>
+  </si>
+  <si>
+    <t>Root moment around z:  5048723.28722465</t>
+  </si>
+  <si>
+    <t>Root force around y:  1469137.832891787</t>
+  </si>
+  <si>
+    <t>Updated boom area for strut pos8.05</t>
+  </si>
+  <si>
+    <t>I_zz 0.029821387791429666</t>
+  </si>
+  <si>
+    <t>area due to buckling [0.0691249]</t>
+  </si>
+  <si>
+    <t>strut mass [2015.95647974]</t>
+  </si>
+  <si>
+    <t>strut cost [70961.66808671]</t>
+  </si>
+  <si>
+    <t>is zonder strut mass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is zonder strut </t>
+  </si>
+  <si>
+    <t>total cost</t>
   </si>
 </sst>
 </file>
@@ -1034,7 +1067,7 @@
         <v>2275.5481330900002</v>
       </c>
       <c r="V5">
-        <f>U5*35.2</f>
+        <f t="shared" ref="V5:V10" si="0">U5*35.2</f>
         <v>80099.29428476801</v>
       </c>
       <c r="W5">
@@ -1062,15 +1095,15 @@
         <v>3.9684000000000004E-3</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H10" si="0">MAX(F6,Q6)</f>
+        <f t="shared" ref="H6:H10" si="1">MAX(F6,Q6)</f>
         <v>3.9684000000000004E-3</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6:I10" si="1">MAX(C6,N6)</f>
+        <f t="shared" ref="I6:I10" si="2">MAX(C6,N6)</f>
         <v>7457.0444886100004</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6:J10" si="2">I6*1.96</f>
+        <f t="shared" ref="J6:J10" si="3">I6*1.96</f>
         <v>14615.8071976756</v>
       </c>
       <c r="L6">
@@ -1092,7 +1125,7 @@
         <v>2210.1023986800001</v>
       </c>
       <c r="V6">
-        <f>U6*35.2</f>
+        <f t="shared" si="0"/>
         <v>77795.604433536006</v>
       </c>
       <c r="W6">
@@ -1120,15 +1153,15 @@
         <v>3.5728399999999999E-3</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5728399999999999E-3</v>
       </c>
       <c r="I7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6713.7415012700003</v>
       </c>
       <c r="J7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13158.933342489201</v>
       </c>
       <c r="L7">
@@ -1150,7 +1183,7 @@
         <v>2144.9286083799998</v>
       </c>
       <c r="V7">
-        <f>U7*35.2</f>
+        <f t="shared" si="0"/>
         <v>75501.487014975995</v>
       </c>
       <c r="W7">
@@ -1177,15 +1210,15 @@
         <v>3.17782E-3</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.17782E-3</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5971.46495779</v>
       </c>
       <c r="J8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11704.071317268399</v>
       </c>
       <c r="L8">
@@ -1207,7 +1240,7 @@
         <v>2080.0508507499999</v>
       </c>
       <c r="V8">
-        <f>U8*35.2</f>
+        <f t="shared" si="0"/>
         <v>73217.789946400007</v>
       </c>
       <c r="W8">
@@ -1234,15 +1267,15 @@
         <v>2.7847800000000002E-3</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7847800000000002E-3</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5232.8985236999997</v>
       </c>
       <c r="J9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10256.481106452</v>
       </c>
       <c r="L9">
@@ -1264,7 +1297,7 @@
         <v>2015.49559359</v>
       </c>
       <c r="V9">
-        <f>U9*35.2</f>
+        <f t="shared" si="0"/>
         <v>70945.444894368004</v>
       </c>
       <c r="W9">
@@ -1291,15 +1324,15 @@
         <v>2.39594E-3</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2316699999999999E-3</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6072.6555977300004</v>
       </c>
       <c r="J10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11902.404971550801</v>
       </c>
       <c r="N10">
@@ -1318,7 +1351,7 @@
         <v>1951.2918001200001</v>
       </c>
       <c r="V10">
-        <f>U10*35.2</f>
+        <f t="shared" si="0"/>
         <v>68685.471364224009</v>
       </c>
       <c r="W10">
@@ -1368,19 +1401,19 @@
         <v>6.55</v>
       </c>
       <c r="J17">
-        <f t="shared" ref="J17:J22" si="3">I6+U6</f>
+        <f t="shared" ref="J17:J21" si="4">I6+U6</f>
         <v>9667.1468872900004</v>
       </c>
       <c r="L17">
-        <f t="shared" ref="L17:L21" si="4">J6+V6</f>
+        <f t="shared" ref="L17:L21" si="5">J6+V6</f>
         <v>92411.411631211609</v>
       </c>
       <c r="N17">
-        <f t="shared" ref="N17:N21" si="5">SQRT(W6/PI())</f>
+        <f t="shared" ref="N17:N21" si="6">SQRT(W6/PI())</f>
         <v>0.14960496154949515</v>
       </c>
       <c r="O17">
-        <f t="shared" ref="O17:O21" si="6">N17*2</f>
+        <f t="shared" ref="O17:O21" si="7">N17*2</f>
         <v>0.2992099230989903</v>
       </c>
     </row>
@@ -1389,19 +1422,19 @@
         <v>7.05</v>
       </c>
       <c r="J18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8858.6701096500001</v>
       </c>
       <c r="L18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>88660.420357465191</v>
       </c>
       <c r="N18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.14919176138336798</v>
       </c>
       <c r="O18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.29838352276673596</v>
       </c>
     </row>
@@ -1413,19 +1446,19 @@
         <v>7.55</v>
       </c>
       <c r="J19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8051.5158085399999</v>
       </c>
       <c r="L19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>84921.861263668412</v>
       </c>
       <c r="N19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.14876282150547615</v>
       </c>
       <c r="O19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.2975256430109523</v>
       </c>
     </row>
@@ -1437,21 +1470,21 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="J20" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7248.3941172899995</v>
       </c>
       <c r="K20" s="20"/>
       <c r="L20" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>81201.926000820007</v>
       </c>
       <c r="M20" s="20"/>
       <c r="N20" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.14831758686064625</v>
       </c>
       <c r="O20" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.2966351737212925</v>
       </c>
     </row>
@@ -1460,19 +1493,19 @@
         <v>8.5500000000000007</v>
       </c>
       <c r="J21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8023.9473978500009</v>
       </c>
       <c r="L21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80587.87633577481</v>
       </c>
       <c r="N21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.14785553349772612</v>
       </c>
       <c r="O21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.29571106699545224</v>
       </c>
     </row>
@@ -3238,7 +3271,7 @@
         <v>3.7511900000000002E-3</v>
       </c>
       <c r="AO29">
-        <f t="shared" ref="AO28:AO34" si="13">MAX(AF18,AF40)</f>
+        <f t="shared" ref="AO29:AO34" si="13">MAX(AF18,AF40)</f>
         <v>7048.8759382899998</v>
       </c>
       <c r="AP29">
@@ -3287,7 +3320,7 @@
       </c>
       <c r="X30" s="7"/>
       <c r="Y30" s="7">
-        <f t="shared" ref="Y28:Y34" si="14">(MAX(S19,S41))</f>
+        <f t="shared" ref="Y30:Y34" si="14">(MAX(S19,S41))</f>
         <v>11390.459220090001</v>
       </c>
       <c r="Z30" s="7">
@@ -7078,8 +7111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F922138F-DD1A-4719-9BD1-943EF01504B1}">
   <dimension ref="A3:R34"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView topLeftCell="F18" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7228,7 +7261,7 @@
         <v>5.2499999999999998E-2</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E5:G9" si="1">((D6-$D$4)/$D$4)*100</f>
+        <f t="shared" ref="E6:E9" si="1">((D6-$D$4)/$D$4)*100</f>
         <v>4.9999999999999902</v>
       </c>
       <c r="F6">
@@ -7760,323 +7793,203 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8100D988-33C8-4BBC-859A-B41735BBD511}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1">
-        <v>7.7776542545878402E-2</v>
+        <v>127</v>
       </c>
       <c r="H1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I1">
-        <v>2.57008830560045E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2">
-        <v>18.458209056101801</v>
+        <v>128</v>
       </c>
       <c r="H2" t="s">
-        <v>122</v>
-      </c>
-      <c r="I2" t="s">
-        <v>113</v>
-      </c>
-      <c r="J2">
-        <v>18.458209056101801</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3">
-        <v>1.29584240115779E-2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I3" t="s">
-        <v>124</v>
-      </c>
-      <c r="J3" t="s">
-        <v>113</v>
-      </c>
-      <c r="K3">
-        <v>1.29584240115779E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>6.5754448947894497</v>
+      </c>
+      <c r="H3">
+        <v>11.7874424136103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4">
-        <v>4.4874072352479404</v>
+        <v>129</v>
       </c>
       <c r="H4" t="s">
-        <v>125</v>
-      </c>
-      <c r="I4">
-        <v>15.416254109804999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H5" t="s">
-        <v>126</v>
-      </c>
-      <c r="I5" t="s">
-        <v>127</v>
-      </c>
-      <c r="J5" t="s">
-        <v>128</v>
-      </c>
-      <c r="K5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6">
-        <v>1198802.8775760899</v>
+        <v>131</v>
       </c>
       <c r="H6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I6" t="s">
-        <v>127</v>
-      </c>
-      <c r="J6">
-        <v>1201254.9599690901</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7">
-        <v>1.29584240115779E-2</v>
+        <v>132</v>
       </c>
       <c r="H7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J7" t="s">
-        <v>131</v>
-      </c>
-      <c r="K7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L7">
-        <v>1.29584240115779E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" t="s">
         <v>133</v>
       </c>
-      <c r="D8">
-        <v>1.1988028775760899E-2</v>
-      </c>
       <c r="H8" t="s">
-        <v>132</v>
-      </c>
-      <c r="I8" t="s">
-        <v>113</v>
-      </c>
-      <c r="J8" t="s">
-        <v>133</v>
-      </c>
-      <c r="K8">
-        <v>1.20125495996909E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>134</v>
       </c>
-      <c r="B9" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E9">
-        <v>5059654.7122425996</v>
-      </c>
       <c r="H9" t="s">
         <v>134</v>
       </c>
-      <c r="I9" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>135</v>
       </c>
-      <c r="J9" t="s">
+      <c r="H10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>136</v>
       </c>
-      <c r="K9" t="s">
+      <c r="H11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>137</v>
       </c>
-      <c r="L9">
-        <v>5010367.8561431803</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E10">
-        <v>8814497.6167833898</v>
-      </c>
-      <c r="H10" t="s">
-        <v>134</v>
-      </c>
-      <c r="I10" t="s">
-        <v>135</v>
-      </c>
-      <c r="J10" t="s">
-        <v>136</v>
-      </c>
-      <c r="K10" t="s">
-        <v>138</v>
-      </c>
-      <c r="L10">
-        <v>8814497.6167833898</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D11" t="s">
-        <v>138</v>
-      </c>
-      <c r="E11">
-        <v>1464076.1193830499</v>
-      </c>
-      <c r="H11" t="s">
-        <v>134</v>
-      </c>
-      <c r="I11" t="s">
-        <v>127</v>
-      </c>
-      <c r="J11" t="s">
-        <v>136</v>
-      </c>
-      <c r="K11" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11">
-        <v>1461624.03699005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" t="s">
-        <v>136</v>
-      </c>
-      <c r="D12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12">
-        <v>-600099.84981219505</v>
-      </c>
       <c r="H12" t="s">
-        <v>134</v>
-      </c>
-      <c r="I12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J12" t="s">
-        <v>136</v>
-      </c>
-      <c r="K12" t="s">
-        <v>137</v>
-      </c>
-      <c r="L12">
-        <v>-600099.84981219505</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="H14">
-        <v>22.198016250524098</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H13">
+        <v>-3.13779102134552</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35">
+        <f>(3036+8455.9+9124.72)*2</f>
+        <v>41233.24</v>
+      </c>
+      <c r="D35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37">
+        <f>(16573+(9124+3036)*1.96)*2</f>
+        <v>80813.2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39">
+        <f>B35+2*2015</f>
+        <v>45263.24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41">
+        <f>B37+2*70961</f>
+        <v>222735.2</v>
       </c>
     </row>
   </sheetData>

--- a/final strut overview.xlsx
+++ b/final strut overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\DSE\Bigger_is_Better\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5482136-20B7-413A-85C5-2865FD291DEE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C1ADE3-ECCD-4A11-87F8-B36D4970233A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{EE3265AF-2B1E-4F7B-B58D-C01DF63E7154}"/>
   </bookViews>
@@ -7795,7 +7795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8100D988-33C8-4BBC-859A-B41735BBD511}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>

--- a/final strut overview.xlsx
+++ b/final strut overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\DSE\Bigger_is_Better\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C1ADE3-ECCD-4A11-87F8-B36D4970233A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212233A5-7504-417D-83FE-5EFDE8C42838}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{EE3265AF-2B1E-4F7B-B58D-C01DF63E7154}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="151">
   <si>
     <t>Material</t>
   </si>
@@ -484,6 +484,9 @@
   </si>
   <si>
     <t>total cost</t>
+  </si>
+  <si>
+    <t>deflection of strut 424011577943</t>
   </si>
 </sst>
 </file>
@@ -931,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55496F23-BF4A-4000-8A04-A4F528CA684A}">
   <dimension ref="A2:W31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1271,7 +1274,7 @@
         <v>2.7847800000000002E-3</v>
       </c>
       <c r="I9">
-        <f t="shared" si="2"/>
+        <f>MAX(C9,N9)</f>
         <v>5232.8985236999997</v>
       </c>
       <c r="J9">
@@ -1401,19 +1404,19 @@
         <v>6.55</v>
       </c>
       <c r="J17">
-        <f t="shared" ref="J17:J21" si="4">I6+U6</f>
+        <f>I6+U6</f>
         <v>9667.1468872900004</v>
       </c>
       <c r="L17">
-        <f t="shared" ref="L17:L21" si="5">J6+V6</f>
+        <f t="shared" ref="L17:L21" si="4">J6+V6</f>
         <v>92411.411631211609</v>
       </c>
       <c r="N17">
-        <f t="shared" ref="N17:N21" si="6">SQRT(W6/PI())</f>
+        <f t="shared" ref="N17:N21" si="5">SQRT(W6/PI())</f>
         <v>0.14960496154949515</v>
       </c>
       <c r="O17">
-        <f t="shared" ref="O17:O21" si="7">N17*2</f>
+        <f t="shared" ref="O17:O21" si="6">N17*2</f>
         <v>0.2992099230989903</v>
       </c>
     </row>
@@ -1422,19 +1425,19 @@
         <v>7.05</v>
       </c>
       <c r="J18">
+        <f>I7+U7</f>
+        <v>8858.6701096500001</v>
+      </c>
+      <c r="L18">
         <f t="shared" si="4"/>
-        <v>8858.6701096500001</v>
-      </c>
-      <c r="L18">
+        <v>88660.420357465191</v>
+      </c>
+      <c r="N18">
         <f t="shared" si="5"/>
-        <v>88660.420357465191</v>
-      </c>
-      <c r="N18">
+        <v>0.14919176138336798</v>
+      </c>
+      <c r="O18">
         <f t="shared" si="6"/>
-        <v>0.14919176138336798</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="7"/>
         <v>0.29838352276673596</v>
       </c>
     </row>
@@ -1446,19 +1449,19 @@
         <v>7.55</v>
       </c>
       <c r="J19">
+        <f>I8+U8</f>
+        <v>8051.5158085399999</v>
+      </c>
+      <c r="L19">
         <f t="shared" si="4"/>
-        <v>8051.5158085399999</v>
-      </c>
-      <c r="L19">
+        <v>84921.861263668412</v>
+      </c>
+      <c r="N19">
         <f t="shared" si="5"/>
-        <v>84921.861263668412</v>
-      </c>
-      <c r="N19">
+        <v>0.14876282150547615</v>
+      </c>
+      <c r="O19">
         <f t="shared" si="6"/>
-        <v>0.14876282150547615</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="7"/>
         <v>0.2975256430109523</v>
       </c>
     </row>
@@ -1470,21 +1473,21 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="J20" s="20">
-        <f t="shared" si="4"/>
+        <f>I9+U9</f>
         <v>7248.3941172899995</v>
       </c>
       <c r="K20" s="20"/>
       <c r="L20" s="20">
-        <f t="shared" si="5"/>
+        <f>J9+V9</f>
         <v>81201.926000820007</v>
       </c>
       <c r="M20" s="20"/>
       <c r="N20" s="20">
+        <f>SQRT(W9/PI())</f>
+        <v>0.14831758686064625</v>
+      </c>
+      <c r="O20" s="20">
         <f t="shared" si="6"/>
-        <v>0.14831758686064625</v>
-      </c>
-      <c r="O20" s="20">
-        <f t="shared" si="7"/>
         <v>0.2966351737212925</v>
       </c>
     </row>
@@ -1493,19 +1496,19 @@
         <v>8.5500000000000007</v>
       </c>
       <c r="J21">
+        <f>I10+U10</f>
+        <v>8023.9473978500009</v>
+      </c>
+      <c r="L21">
         <f t="shared" si="4"/>
-        <v>8023.9473978500009</v>
-      </c>
-      <c r="L21">
+        <v>80587.87633577481</v>
+      </c>
+      <c r="N21">
         <f t="shared" si="5"/>
-        <v>80587.87633577481</v>
-      </c>
-      <c r="N21">
+        <v>0.14785553349772612</v>
+      </c>
+      <c r="O21">
         <f t="shared" si="6"/>
-        <v>0.14785553349772612</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="7"/>
         <v>0.29571106699545224</v>
       </c>
     </row>
@@ -1572,7 +1575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB35992D-6E6F-4199-A59F-71854131EE8F}">
   <dimension ref="A2:AQ94"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="X17" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
@@ -7111,8 +7114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F922138F-DD1A-4719-9BD1-943EF01504B1}">
   <dimension ref="A3:R34"/>
   <sheetViews>
-    <sheetView topLeftCell="F18" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7796,7 +7799,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7811,7 +7814,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="H2" t="s">
         <v>128</v>

--- a/final strut overview.xlsx
+++ b/final strut overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\DSE\Bigger_is_Better\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212233A5-7504-417D-83FE-5EFDE8C42838}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B531A1-2A4E-43D2-882C-4D01F32A10EC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{EE3265AF-2B1E-4F7B-B58D-C01DF63E7154}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{EE3265AF-2B1E-4F7B-B58D-C01DF63E7154}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad2" sheetId="2" r:id="rId1"/>
@@ -934,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55496F23-BF4A-4000-8A04-A4F528CA684A}">
   <dimension ref="A2:W31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1383,7 +1383,7 @@
         <v>6.05</v>
       </c>
       <c r="J16">
-        <f>I5+U5</f>
+        <f t="shared" ref="J16:J21" si="4">I5+U5</f>
         <v>10474.46912475</v>
       </c>
       <c r="L16">
@@ -1404,19 +1404,19 @@
         <v>6.55</v>
       </c>
       <c r="J17">
-        <f>I6+U6</f>
+        <f t="shared" si="4"/>
         <v>9667.1468872900004</v>
       </c>
       <c r="L17">
-        <f t="shared" ref="L17:L21" si="4">J6+V6</f>
+        <f t="shared" ref="L17:L21" si="5">J6+V6</f>
         <v>92411.411631211609</v>
       </c>
       <c r="N17">
-        <f t="shared" ref="N17:N21" si="5">SQRT(W6/PI())</f>
+        <f t="shared" ref="N17:N21" si="6">SQRT(W6/PI())</f>
         <v>0.14960496154949515</v>
       </c>
       <c r="O17">
-        <f t="shared" ref="O17:O21" si="6">N17*2</f>
+        <f t="shared" ref="O17:O21" si="7">N17*2</f>
         <v>0.2992099230989903</v>
       </c>
     </row>
@@ -1425,19 +1425,19 @@
         <v>7.05</v>
       </c>
       <c r="J18">
-        <f>I7+U7</f>
+        <f t="shared" si="4"/>
         <v>8858.6701096500001</v>
       </c>
       <c r="L18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>88660.420357465191</v>
       </c>
       <c r="N18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.14919176138336798</v>
       </c>
       <c r="O18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.29838352276673596</v>
       </c>
     </row>
@@ -1449,19 +1449,19 @@
         <v>7.55</v>
       </c>
       <c r="J19">
-        <f>I8+U8</f>
+        <f t="shared" si="4"/>
         <v>8051.5158085399999</v>
       </c>
       <c r="L19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>84921.861263668412</v>
       </c>
       <c r="N19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.14876282150547615</v>
       </c>
       <c r="O19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.2975256430109523</v>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
         <v>8.0500000000000007</v>
       </c>
       <c r="J20" s="20">
-        <f>I9+U9</f>
+        <f t="shared" si="4"/>
         <v>7248.3941172899995</v>
       </c>
       <c r="K20" s="20"/>
@@ -1487,7 +1487,7 @@
         <v>0.14831758686064625</v>
       </c>
       <c r="O20" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.2966351737212925</v>
       </c>
     </row>
@@ -1496,19 +1496,19 @@
         <v>8.5500000000000007</v>
       </c>
       <c r="J21">
-        <f>I10+U10</f>
+        <f t="shared" si="4"/>
         <v>8023.9473978500009</v>
       </c>
       <c r="L21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80587.87633577481</v>
       </c>
       <c r="N21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.14785553349772612</v>
       </c>
       <c r="O21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.29571106699545224</v>
       </c>
     </row>
@@ -1575,8 +1575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB35992D-6E6F-4199-A59F-71854131EE8F}">
   <dimension ref="A2:AQ94"/>
   <sheetViews>
-    <sheetView topLeftCell="X17" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AD16" sqref="AD16"/>
+    <sheetView topLeftCell="K41" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="S54" sqref="S54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7114,7 +7114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F922138F-DD1A-4719-9BD1-943EF01504B1}">
   <dimension ref="A3:R34"/>
   <sheetViews>
-    <sheetView topLeftCell="E3" workbookViewId="0">
+    <sheetView topLeftCell="C3" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -7798,7 +7798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8100D988-33C8-4BBC-859A-B41735BBD511}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
